--- a/biology/Botanique/Magnolia_coriacea/Magnolia_coriacea.xlsx
+++ b/biology/Botanique/Magnolia_coriacea/Magnolia_coriacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia coriacea est une espèce d'arbres de la famille des Magnoliacées présente en Chine et au Vietnam.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre est sur la liste rouge des espèces en voie de disparition en 2020. Il existerait moins de 500 individus dans une région située entre Thi Tran Sa Pa au Vietnam et Bose en Chine[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est sur la liste rouge des espèces en voie de disparition en 2020. Il existerait moins de 500 individus dans une région située entre Thi Tran Sa Pa au Vietnam et Bose en Chine.
 </t>
         </is>
       </c>
